--- a/biology/Médecine/Entacapone/Entacapone.xlsx
+++ b/biology/Médecine/Entacapone/Entacapone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'entacapone est principalement utilisée dans le traitement de la maladie de Parkinson.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un inhibiteur du catabolisme des catécholamines. Celles-ci sont détruites par les enzymes MAO (monoamine oxydases) et COMT (catéchol-O-méthyltransférases). L'entacapone empêche cette destruction en inhibant ces enzymes : il s'agit d'un inhibiteur de COMT (ICOMT)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un inhibiteur du catabolisme des catécholamines. Celles-ci sont détruites par les enzymes MAO (monoamine oxydases) et COMT (catéchol-O-méthyltransférases). L'entacapone empêche cette destruction en inhibant ces enzymes : il s'agit d'un inhibiteur de COMT (ICOMT).
 Dans le traitement de la maladie de Parkinson, on administre généralement au patient de la Lévodopa (un précurseur de la dopamine). En y associant l'entacapone on diminue son catabolisme. De ce fait, on potentialise son action et on maximise ses effets.
 </t>
         </is>
